--- a/03_Outputs/all/idx7_gini_loadings_y_tops.xlsx
+++ b/03_Outputs/all/idx7_gini_loadings_y_tops.xlsx
@@ -354,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,6 +376,16 @@
           <t>loading</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>peso_relativo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>peso_relativo_pct</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -391,6 +401,12 @@
       <c r="C2">
         <v>-0.7071067811865476</v>
       </c>
+      <c r="D2">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -406,6 +422,12 @@
       <c r="C3">
         <v>-0.7071067811865475</v>
       </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -421,6 +443,12 @@
       <c r="C4">
         <v>-0.7071067811865475</v>
       </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -435,6 +463,12 @@
       </c>
       <c r="C5">
         <v>0.7071067811865476</v>
+      </c>
+      <c r="D5">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
